--- a/save.xlsx
+++ b/save.xlsx
@@ -722,23 +722,23 @@
       </c>
       <c r="C18" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>€0.00</v>
+        <v>€4.00</v>
       </c>
       <c r="D18" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <v>€0.00</v>
       </c>
       <c r="E18" s="8">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F18" s="8">
         <v>0.0</v>
       </c>
       <c r="G18" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H18" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">

--- a/save.xlsx
+++ b/save.xlsx
@@ -572,14 +572,14 @@
       </c>
       <c r="C12" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>€0.00</v>
+        <v>€3.00</v>
       </c>
       <c r="D12" s="8" t="str">
         <f t="shared" si="2"/>
         <v>€1.00</v>
       </c>
       <c r="E12" s="8">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F12" s="8">
         <v>0.0</v>
@@ -922,23 +922,23 @@
       </c>
       <c r="C26" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>€0.00</v>
+        <v>€4.00</v>
       </c>
       <c r="D26" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <v>€0.00</v>
       </c>
       <c r="E26" s="8">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F26" s="8">
         <v>0.0</v>
       </c>
       <c r="G26" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H26" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">

--- a/save.xlsx
+++ b/save.xlsx
@@ -422,23 +422,23 @@
       </c>
       <c r="C6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>€0.00</v>
+        <v>€4.00</v>
       </c>
       <c r="D6" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <v>€0.00</v>
       </c>
       <c r="E6" s="8">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F6" s="8">
         <v>0.0</v>
       </c>
       <c r="G6" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H6" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -522,23 +522,23 @@
       </c>
       <c r="C10" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>€0.00</v>
+        <v>€4.00</v>
       </c>
       <c r="D10" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <v>€0.00</v>
       </c>
       <c r="E10" s="8">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F10" s="8">
         <v>0.0</v>
       </c>
       <c r="G10" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H10" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -622,23 +622,23 @@
       </c>
       <c r="C14" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>€0.00</v>
+        <v>€4.00</v>
       </c>
       <c r="D14" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>€1.00</v>
+        <v>€0.00</v>
       </c>
       <c r="E14" s="8">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F14" s="8">
         <v>0.0</v>
       </c>
       <c r="G14" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H14" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
